--- a/NEW HR/New folder/BELEN, DEMOCRITO.xlsx
+++ b/NEW HR/New folder/BELEN, DEMOCRITO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C0840A-B0EC-496D-8D4C-5822F84DFA20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6F928C-3CD3-41F1-841E-789D43DF6D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>PERIOD</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -570,15 +573,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -591,11 +585,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2569,7 +2572,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2586,7 +2589,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K115" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K116" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -2964,12 +2967,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K115"/>
+  <dimension ref="A2:K116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="4788" topLeftCell="A11" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57:C59"/>
+      <pane ySplit="4788" topLeftCell="A70"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2999,14 +3002,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3017,16 +3020,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="53">
         <v>43647</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3039,14 +3042,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3072,18 +3075,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3130,7 +3133,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>41.25</v>
+        <v>54.082999999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3140,7 +3143,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>56.25</v>
+        <v>74.082999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4093,7 +4096,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4113,7 +4116,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -4133,7 +4136,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -4153,16 +4156,18 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B60" s="20"/>
-      <c r="C60" s="13"/>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
@@ -4171,16 +4176,18 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
@@ -4189,16 +4196,18 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <v>45078</v>
+        <v>45107</v>
       </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
@@ -4207,16 +4216,18 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
@@ -4225,16 +4236,18 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
@@ -4243,16 +4256,18 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
@@ -4261,16 +4276,18 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
@@ -4279,16 +4296,18 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
@@ -4297,16 +4316,22 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="39"/>
+        <v>45291</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D68" s="39">
+        <v>5</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
@@ -4314,8 +4339,8 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="40">
-        <v>45292</v>
+      <c r="A69" s="48" t="s">
+        <v>51</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4333,16 +4358,18 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>45323</v>
+        <v>45322</v>
       </c>
       <c r="B70" s="20"/>
-      <c r="C70" s="13"/>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
@@ -4351,16 +4378,18 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
@@ -4369,16 +4398,18 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <v>45383</v>
+        <v>45382</v>
       </c>
       <c r="B72" s="20"/>
-      <c r="C72" s="13"/>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D72" s="39"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
@@ -4387,16 +4418,18 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>45413</v>
+        <v>45412</v>
       </c>
       <c r="B73" s="20"/>
-      <c r="C73" s="13"/>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D73" s="39"/>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
@@ -4405,16 +4438,18 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>45444</v>
+        <v>45443</v>
       </c>
       <c r="B74" s="20"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
@@ -4423,16 +4458,18 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>45474</v>
+        <v>45450</v>
       </c>
       <c r="B75" s="20"/>
-      <c r="C75" s="13"/>
+      <c r="C75" s="13">
+        <v>0.33299999999999996</v>
+      </c>
       <c r="D75" s="39"/>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G75" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>0.33299999999999996</v>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
@@ -4440,9 +4477,7 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40">
-        <v>45505</v>
-      </c>
+      <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
       <c r="D76" s="39"/>
@@ -4458,9 +4493,7 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40">
-        <v>45536</v>
-      </c>
+      <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4476,9 +4509,7 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40">
-        <v>45566</v>
-      </c>
+      <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -4494,9 +4525,7 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40">
-        <v>45597</v>
-      </c>
+      <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -4512,9 +4541,7 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40">
-        <v>45627</v>
-      </c>
+      <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -5074,34 +5101,50 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="41"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="43"/>
+      <c r="A115" s="40"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="39"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="42" t="str">
+      <c r="F115" s="20"/>
+      <c r="G115" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H115" s="43"/>
+      <c r="H115" s="39"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="15"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="20"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="41"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="43"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="43"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5135,7 +5178,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5204,21 +5247,23 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>23</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>22</v>
+      </c>
+      <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
+        <v>0.33299999999999974</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -5251,7 +5296,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>97.5</v>
+        <v>128.166</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
